--- a/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
@@ -9565,12 +9565,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9580,12 +9580,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -12262,12 +12262,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -12277,12 +12277,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -12375,12 +12375,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -12390,12 +12390,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -16031,12 +16031,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16600,12 +16600,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">

--- a/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en País Vasco</t>
+          <t>Sensación de soledad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4771,7 +4771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Andalucia</t>
+          <t>Sensación de soledad en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8996,7 +8996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en C.Valenciana</t>
+          <t>Sensación de soledad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13221,7 +13221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Barcelona</t>
+          <t>Sensación de soledad en Barcelona (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59647</t>
+          <t>137222</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55834</t>
+          <t>127867</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62460</t>
+          <t>144766</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,95%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54368</t>
+          <t>129708</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50438</t>
+          <t>118384</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58019</t>
+          <t>137942</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>114015</t>
+          <t>266929</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>108965</t>
+          <t>254496</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>118706</t>
+          <t>280420</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>76,91%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15011</t>
+          <t>33391</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12523</t>
+          <t>26534</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18590</t>
+          <t>42794</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21720</t>
+          <t>50407</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18273</t>
+          <t>42097</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25517</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>36730</t>
+          <t>83798</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>32375</t>
+          <t>72625</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>41198</t>
+          <t>96368</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>26,43%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>8546</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4859</t>
+          <t>13593</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4941</t>
+          <t>12085</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3412</t>
+          <t>7875</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7242</t>
+          <t>18074</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>704</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>3957</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>513</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34417</t>
+          <t>78434</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31401</t>
+          <t>70975</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36957</t>
+          <t>84768</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>75,49%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46175</t>
+          <t>85893</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43087</t>
+          <t>78585</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48927</t>
+          <t>91970</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>80592</t>
+          <t>164328</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>76798</t>
+          <t>153630</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>84297</t>
+          <t>173417</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>72,97%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>77,01%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>19718</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5768</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10530</t>
+          <t>26270</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14070</t>
+          <t>30042</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11250</t>
+          <t>23850</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17059</t>
+          <t>36630</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22074</t>
+          <t>49760</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18698</t>
+          <t>41645</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25991</t>
+          <t>59411</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>26,38%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3754</t>
+          <t>8830</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>5130</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>9128</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>4327</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>6783</t>
+          <t>14914</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>221</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>486</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>2213</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64167</t>
+          <t>117864</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60509</t>
+          <t>109363</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67224</t>
+          <t>123860</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>77,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21757</t>
+          <t>34637</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19217</t>
+          <t>29904</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>38961</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>85924</t>
+          <t>152501</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>81318</t>
+          <t>143020</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>89766</t>
+          <t>160015</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>77,65%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>28110</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12647</t>
+          <t>22329</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19123</t>
+          <t>35423</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>13741</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6654</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11436</t>
+          <t>17925</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>24508</t>
+          <t>41851</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>35124</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>28681</t>
+          <t>50346</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>8437</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>4992</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>9104</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6884</t>
+          <t>14349</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>353</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>6061</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>253</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>948</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65640</t>
+          <t>130878</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61934</t>
+          <t>121163</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68735</t>
+          <t>138763</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64638</t>
+          <t>122818</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>60623</t>
+          <t>112277</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>68450</t>
+          <t>132376</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>130278</t>
+          <t>253697</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>124971</t>
+          <t>239989</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>135114</t>
+          <t>265943</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>69,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>72,71%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15808</t>
+          <t>36917</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12934</t>
+          <t>29981</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>45387</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24088</t>
+          <t>50546</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>20204</t>
+          <t>41889</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>27728</t>
+          <t>59363</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>39896</t>
+          <t>87464</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>35543</t>
+          <t>75426</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>44775</t>
+          <t>100575</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>27,5%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>10743</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6853</t>
+          <t>18006</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>11641</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3152</t>
+          <t>7225</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6993</t>
+          <t>18904</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>9208</t>
+          <t>22384</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>15838</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>12129</t>
+          <t>31417</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>604</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>785</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>4516</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>5119</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>27585</t>
+          <t>58287</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>24937</t>
+          <t>52980</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>29869</t>
+          <t>62093</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>81,93%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>46265</t>
+          <t>79789</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>42418</t>
+          <t>71277</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>49867</t>
+          <t>85988</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>73850</t>
+          <t>138076</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>69469</t>
+          <t>128680</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>77709</t>
+          <t>145869</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>74,12%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>11017</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>7737</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9412</t>
+          <t>15634</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>20675</t>
+          <t>36641</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17380</t>
+          <t>30911</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>24169</t>
+          <t>44467</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>27325</t>
+          <t>47658</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>23518</t>
+          <t>40401</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31588</t>
+          <t>56287</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>28,6%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>5131</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>7883</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>9718</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>851</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2473</t>
+          <t>4668</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>792</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>5622</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>2477</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>9425</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>14197</t>
+          <t>37894</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12700</t>
+          <t>32348</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15352</t>
+          <t>42262</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44180</t>
+          <t>88315</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>41160</t>
+          <t>80375</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>47022</t>
+          <t>95795</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>58378</t>
+          <t>126209</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>54948</t>
+          <t>116517</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>61443</t>
+          <t>134449</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>78,62%</t>
+          <t>77,82%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>7696</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>12722</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>13658</t>
+          <t>29016</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>22773</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>16695</t>
+          <t>35735</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>16176</t>
+          <t>36712</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>13460</t>
+          <t>29239</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>19213</t>
+          <t>46077</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>26,67%</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>852</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>3238</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>6597</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>12737</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>7449</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>13182</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>246</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>6276</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>407</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>2147</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>604</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>265653</t>
+          <t>560580</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>258454</t>
+          <t>543377</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>272848</t>
+          <t>577009</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>277383</t>
+          <t>541160</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>269585</t>
+          <t>521428</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>285229</t>
+          <t>558471</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>543036</t>
+          <t>1101740</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>531466</t>
+          <t>1076959</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>552265</t>
+          <t>1127770</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>70,33%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>73,65%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>63594</t>
+          <t>136848</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>57501</t>
+          <t>120606</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>70441</t>
+          <t>152132</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>103115</t>
+          <t>210394</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>94746</t>
+          <t>193910</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>110034</t>
+          <t>228411</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,22 +4333,22 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>166709</t>
+          <t>347242</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>157972</t>
+          <t>323076</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>177333</t>
+          <t>370222</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>24,18%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>12144</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>9522</t>
+          <t>18893</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>15624</t>
+          <t>34132</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>19293</t>
+          <t>42037</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>16046</t>
+          <t>32933</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>23832</t>
+          <t>52758</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>31437</t>
+          <t>67258</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>26655</t>
+          <t>57002</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>36081</t>
+          <t>80975</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3868</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>14347</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,22 +4524,22 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>11869</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>7465</t>
+          <t>14969</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>5196</t>
+          <t>10224</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>10180</t>
+          <t>21328</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>221989</t>
+          <t>221736</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>259044</t>
+          <t>259599</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>71,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>172594</t>
+          <t>173701</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>201819</t>
+          <t>200827</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>404108</t>
+          <t>405017</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>449739</t>
+          <t>452551</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>68,1%</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75478</t>
+          <t>75911</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>108940</t>
+          <t>110870</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74918</t>
+          <t>76473</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>102567</t>
+          <t>102126</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>160300</t>
+          <t>159871</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>203321</t>
+          <t>202621</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>30,49%</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15487</t>
+          <t>14786</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33848</t>
+          <t>31794</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10323</t>
+          <t>10117</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24281</t>
+          <t>24839</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>27587</t>
+          <t>28475</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>49219</t>
+          <t>50645</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>5427</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18721</t>
+          <t>18369</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10852</t>
+          <t>11624</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10582</t>
+          <t>11348</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>26516</t>
+          <t>27228</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>157434</t>
+          <t>158479</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195597</t>
+          <t>195742</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>140867</t>
+          <t>141423</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168047</t>
+          <t>169058</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>309941</t>
+          <t>309352</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>356797</t>
+          <t>355804</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>60,91%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>102648</t>
+          <t>101764</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>138973</t>
+          <t>138922</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66774</t>
+          <t>66184</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92028</t>
+          <t>90916</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>176495</t>
+          <t>176360</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>220645</t>
+          <t>220063</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14798</t>
+          <t>15034</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31740</t>
+          <t>32775</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>11098</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23685</t>
+          <t>23377</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>29704</t>
+          <t>28194</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>50840</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>9403</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5693</t>
+          <t>5901</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15706</t>
+          <t>16434</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>9457</t>
+          <t>9636</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21862</t>
+          <t>21736</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34583</t>
+          <t>41423</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>276578</t>
+          <t>279442</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>42322</t>
+          <t>41383</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>59050</t>
+          <t>57722</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>59,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>57847</t>
+          <t>70155</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>326709</t>
+          <t>321347</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>56,08%</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19386</t>
+          <t>22096</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154194</t>
+          <t>156095</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23698</t>
+          <t>24248</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38689</t>
+          <t>38830</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>30703</t>
+          <t>36598</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>187584</t>
+          <t>187546</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42518</t>
+          <t>43152</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7999</t>
+          <t>7945</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17736</t>
+          <t>17553</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10842</t>
+          <t>9862</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59580</t>
+          <t>59505</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17964</t>
+          <t>18189</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>414131</t>
+          <t>406218</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>8198</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>21852</t>
+          <t>22216</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>474186</t>
+          <t>450350</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>78,6%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>251719</t>
+          <t>251997</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>301377</t>
+          <t>300912</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>340255</t>
+          <t>340173</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>559824</t>
+          <t>545901</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>607062</t>
+          <t>608735</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>913484</t>
+          <t>896729</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6758,12 +6758,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>76,48%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>154384</t>
+          <t>156475</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>203884</t>
+          <t>203969</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>57870</t>
+          <t>70180</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>230966</t>
+          <t>231633</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>188691</t>
+          <t>199515</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>416756</t>
+          <t>412637</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39961</t>
+          <t>39628</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>65183</t>
+          <t>66178</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11093</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>49254</t>
+          <t>48870</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>46586</t>
+          <t>44807</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>106663</t>
+          <t>107829</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18158</t>
+          <t>18307</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36982</t>
+          <t>36338</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5141</t>
+          <t>5550</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>25281</t>
+          <t>25002</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>21576</t>
+          <t>22419</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>56679</t>
+          <t>55178</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>86318</t>
+          <t>85779</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>118833</t>
+          <t>117725</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>177109</t>
+          <t>175502</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>299302</t>
+          <t>301368</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>276345</t>
+          <t>275530</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>417756</t>
+          <t>423146</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>66,4%</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>64086</t>
+          <t>63624</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>96397</t>
+          <t>96373</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>82731</t>
+          <t>83181</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>170987</t>
+          <t>171286</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>151273</t>
+          <t>148620</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>254250</t>
+          <t>253403</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>39,76%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10993</t>
+          <t>11158</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>26244</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24666</t>
+          <t>24793</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>55376</t>
+          <t>55164</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>40173</t>
+          <t>39644</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>75524</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>7903</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22685</t>
+          <t>23166</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>13155</t>
+          <t>13894</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>34250</t>
+          <t>33840</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>26744</t>
+          <t>25638</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>51738</t>
+          <t>50319</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>85264</t>
+          <t>85665</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>127386</t>
+          <t>127388</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>51,13%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>195683</t>
+          <t>196373</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>239046</t>
+          <t>241019</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>293729</t>
+          <t>293754</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>354751</t>
+          <t>354089</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>53,91%</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>35044</t>
+          <t>35252</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>76631</t>
+          <t>74383</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>176868</t>
+          <t>177252</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>220132</t>
+          <t>218148</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>221725</t>
+          <t>222352</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>277702</t>
+          <t>279138</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>42,5%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>694</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19654</t>
+          <t>18672</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>45158</t>
+          <t>43886</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>69195</t>
+          <t>69556</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>47719</t>
+          <t>47417</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>77390</t>
+          <t>75855</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>14749</t>
+          <t>14638</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>28800</t>
+          <t>28796</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>16222</t>
+          <t>15892</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>31121</t>
+          <t>31226</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>706825</t>
+          <t>659935</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1193114</t>
+          <t>1187141</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1149328</t>
+          <t>1142686</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1552082</t>
+          <t>1522483</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1851910</t>
+          <t>1939785</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>2564981</t>
+          <t>2560505</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>59,71%</t>
         </is>
       </c>
     </row>
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>392651</t>
+          <t>389397</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>692115</t>
+          <t>692721</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>483290</t>
+          <t>499826</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>779202</t>
+          <t>785083</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1010791</t>
+          <t>1031346</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1436224</t>
+          <t>1431273</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,38%</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>94063</t>
+          <t>89221</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>166374</t>
+          <t>165240</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>124878</t>
+          <t>126321</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>202157</t>
+          <t>204184</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>245207</t>
+          <t>248194</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>355350</t>
+          <t>354921</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>71370</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>889784</t>
+          <t>931335</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>55361</t>
+          <t>56429</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>97620</t>
+          <t>97504</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>149320</t>
+          <t>148333</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1217463</t>
+          <t>1045019</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13416,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>156577</t>
+          <t>156733</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>171659</t>
+          <t>172295</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>152828</t>
+          <t>152935</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>169226</t>
+          <t>169102</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>315070</t>
+          <t>315028</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>337199</t>
+          <t>336877</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -13501,12 +13501,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>82,78%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24954</t>
+          <t>23868</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38978</t>
+          <t>38025</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31416</t>
+          <t>31293</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47667</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>59486</t>
+          <t>59194</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>80317</t>
+          <t>79857</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7590</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -13677,12 +13677,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2184</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8461</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>12760</t>
+          <t>12713</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>464</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4474</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -13770,12 +13770,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>665</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6838</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98610</t>
+          <t>97807</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>108751</t>
+          <t>108271</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>115249</t>
+          <t>114983</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>131157</t>
+          <t>131041</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14035,12 +14035,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>217609</t>
+          <t>218736</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>236021</t>
+          <t>236394</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14070,12 +14070,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>82,75%</t>
         </is>
       </c>
     </row>
@@ -14098,12 +14098,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8394</t>
+          <t>8731</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>17778</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24068</t>
+          <t>24381</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37843</t>
+          <t>38102</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14148,12 +14148,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>34524</t>
+          <t>34283</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>51421</t>
+          <t>51253</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,94%</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>656</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4865</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11120</t>
+          <t>10838</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14281,12 +14281,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>5614</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>14073</t>
+          <t>13409</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>471</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>5083</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14339,12 +14339,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14359,12 +14359,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9953</t>
+          <t>9806</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14374,12 +14374,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>12965</t>
+          <t>11983</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -14554,12 +14554,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66294</t>
+          <t>66999</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78082</t>
+          <t>78654</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>27159</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36236</t>
+          <t>36157</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -14624,12 +14624,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>97794</t>
+          <t>97110</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>112498</t>
+          <t>111942</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>84,49%</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>6252</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17946</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -14702,12 +14702,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11006</t>
+          <t>10836</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -14737,12 +14737,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>12044</t>
+          <t>12153</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>24922</t>
+          <t>25156</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -14780,12 +14780,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>497</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -14815,12 +14815,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8674</t>
+          <t>8450</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -14830,12 +14830,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -14850,12 +14850,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11296</t>
+          <t>11371</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>561</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6253</t>
+          <t>6433</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -14908,12 +14908,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -14928,12 +14928,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>123</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -14943,12 +14943,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>7492</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>115125</t>
+          <t>115239</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>129679</t>
+          <t>129417</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15138,12 +15138,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,3%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>93587</t>
+          <t>94095</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>111925</t>
+          <t>113616</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15173,12 +15173,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -15193,12 +15193,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>214369</t>
+          <t>214874</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>238712</t>
+          <t>239048</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -15208,12 +15208,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>79,29%</t>
         </is>
       </c>
     </row>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13357</t>
+          <t>13879</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25604</t>
+          <t>26244</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15251,12 +15251,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15271,12 +15271,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>22665</t>
+          <t>21231</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>38112</t>
+          <t>38350</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>38643</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>59952</t>
+          <t>59869</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8311</t>
+          <t>8475</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15364,12 +15364,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13728</t>
+          <t>14086</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15399,12 +15399,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>9157</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>19312</t>
+          <t>19124</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -15462,12 +15462,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7915</t>
+          <t>8625</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -15497,12 +15497,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>17059</t>
+          <t>16353</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7502</t>
+          <t>7389</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21272</t>
+          <t>22546</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -15547,12 +15547,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -15692,12 +15692,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35234</t>
+          <t>35583</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43843</t>
+          <t>43821</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -15707,12 +15707,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>71,97%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -15727,12 +15727,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>51006</t>
+          <t>50707</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>65234</t>
+          <t>64605</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -15742,12 +15742,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>60,47%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>90419</t>
+          <t>89268</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>106779</t>
+          <t>106323</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>79,76%</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12585</t>
+          <t>11858</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11104</t>
+          <t>11354</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>23744</t>
+          <t>23501</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>17352</t>
+          <t>17587</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>32068</t>
+          <t>32485</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -15918,12 +15918,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>329</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -15933,12 +15933,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>7232</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>8376</t>
+          <t>8160</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -16066,12 +16066,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>10238</t>
+          <t>10710</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>2691</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>11383</t>
+          <t>10481</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -16261,12 +16261,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>17366</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22533</t>
+          <t>22698</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16276,12 +16276,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16296,12 +16296,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>33615</t>
+          <t>33976</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>42266</t>
+          <t>42309</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16311,12 +16311,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>52875</t>
+          <t>52975</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>63385</t>
+          <t>63434</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6391</t>
+          <t>6513</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16389,12 +16389,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5792</t>
+          <t>5418</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>13389</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16444,12 +16444,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>8906</t>
+          <t>8507</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>18111</t>
+          <t>17094</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>388</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>471</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>6064</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -16572,12 +16572,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -16635,12 +16635,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>338</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5467</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16650,12 +16650,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -16670,12 +16670,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>348</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>6175</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16830,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>510090</t>
+          <t>511151</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>538535</t>
+          <t>538427</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16845,12 +16845,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>80,33%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -16865,12 +16865,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>500448</t>
+          <t>500161</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>534770</t>
+          <t>534749</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1021198</t>
+          <t>1022451</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1067806</t>
+          <t>1067611</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>79,88%</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>72400</t>
+          <t>71912</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>97718</t>
+          <t>97189</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16958,12 +16958,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>116675</t>
+          <t>114173</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>147239</t>
+          <t>146474</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16993,12 +16993,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>194505</t>
+          <t>195200</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>234010</t>
+          <t>235375</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17028,12 +17028,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>11334</t>
+          <t>11080</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>21171</t>
+          <t>22532</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>21406</t>
+          <t>21452</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>37301</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17106,12 +17106,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>35679</t>
+          <t>34032</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>54113</t>
+          <t>53329</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5456</t>
+          <t>5709</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15430</t>
+          <t>16115</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17184,12 +17184,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17281</t>
+          <t>17173</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>34373</t>
+          <t>34210</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17239,12 +17239,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>25590</t>
+          <t>25223</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>44972</t>
+          <t>45091</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
